--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="147">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,337 +46,313 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>returned</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>thought</t>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>might</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>light</t>
   </si>
   <si>
     <t>half</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
     <t>less</t>
   </si>
   <si>
-    <t>might</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>un</t>
+    <t>back</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>nothing</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>looked</t>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>color</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>hold</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>parts</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>minutes</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>pieces</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>need</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>look</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>stick</t>
-  </si>
-  <si>
-    <t>need</t>
+    <t>even</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>ordered</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
     <t>think</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>one</t>
   </si>
   <si>
     <t>still</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>got</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>two</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>set</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>bought</t>
+    <t>old</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>fantastic</t>
+    <t>enjoyable</t>
   </si>
   <si>
     <t>favorite</t>
@@ -385,70 +361,76 @@
     <t>excellent</t>
   </si>
   <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>loves</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>loves</t>
+    <t>loved</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>grandchildren</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>fun</t>
   </si>
   <si>
     <t>birthday</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>fun</t>
+    <t>every</t>
   </si>
   <si>
     <t>games</t>
   </si>
   <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>game</t>
+    <t>playing</t>
   </si>
   <si>
     <t>easy</t>
@@ -457,22 +439,19 @@
     <t>cute</t>
   </si>
   <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>play</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>son</t>
+  </si>
+  <si>
     <t>kids</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t>positive</t>
@@ -833,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q110"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -841,10 +820,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -902,13 +881,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -920,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.85</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -944,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -952,13 +931,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -970,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="K4">
-        <v>0.8148148148148148</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L4">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -994,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1002,13 +981,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8450704225352113</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1020,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="K5">
-        <v>0.7846153846153846</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L5">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M5">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1044,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1052,13 +1031,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7903225806451613</v>
+        <v>0.7718446601941747</v>
       </c>
       <c r="C6">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D6">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1070,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="K6">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1094,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1123,16 +1102,16 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K7">
-        <v>0.7311827956989247</v>
+        <v>0.75</v>
       </c>
       <c r="L7">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="M7">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1144,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1152,13 +1131,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7524271844660194</v>
+        <v>0.7364864864864865</v>
       </c>
       <c r="C8">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="D8">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1170,19 +1149,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="K8">
-        <v>0.65625</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="L8">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="M8">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1194,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1202,13 +1181,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7454545454545455</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1220,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K9">
-        <v>0.625</v>
+        <v>0.65625</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1244,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1252,13 +1231,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.722972972972973</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="C10">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="D10">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1270,19 +1249,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="K10">
-        <v>0.6037735849056604</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1294,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1323,16 +1302,16 @@
         <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K11">
-        <v>0.463768115942029</v>
+        <v>0.4549180327868853</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>555</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>555</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1344,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>37</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1352,13 +1331,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6470588235294118</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C12">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1370,19 +1349,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="K12">
-        <v>0.457752255947498</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="L12">
-        <v>558</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>559</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1391,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>661</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1402,13 +1381,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6296296296296297</v>
+        <v>0.6024096385542169</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1420,19 +1399,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="K13">
-        <v>0.4150943396226415</v>
+        <v>0.4195402298850575</v>
       </c>
       <c r="L13">
-        <v>22</v>
+        <v>292</v>
       </c>
       <c r="M13">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1441,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1452,13 +1431,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6296296296296297</v>
+        <v>0.5536231884057971</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1470,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="K14">
-        <v>0.4066091954022988</v>
+        <v>0.4004149377593361</v>
       </c>
       <c r="L14">
-        <v>283</v>
+        <v>193</v>
       </c>
       <c r="M14">
-        <v>284</v>
+        <v>193</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1491,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>413</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1502,13 +1481,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.625</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1520,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="K15">
-        <v>0.3796680497925311</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="L15">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="M15">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1544,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>299</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1552,13 +1531,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6206896551724138</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1570,19 +1549,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="K16">
-        <v>0.3166666666666667</v>
+        <v>0.3425076452599388</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="M16">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1594,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>82</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1602,13 +1581,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5714285714285714</v>
+        <v>0.5196850393700787</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1620,19 +1599,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="K17">
-        <v>0.3119266055045872</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L17">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1644,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>225</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1652,13 +1631,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5449275362318841</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C18">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1670,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="K18">
-        <v>0.283132530120482</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1694,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>119</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1702,13 +1681,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5421686746987951</v>
+        <v>0.5157894736842106</v>
       </c>
       <c r="C19">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D19">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1720,31 +1699,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="K19">
-        <v>0.2751322751322751</v>
+        <v>0.3085106382978723</v>
       </c>
       <c r="L19">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M19">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1752,13 +1731,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5238095238095238</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1770,31 +1749,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K20">
-        <v>0.2265625</v>
+        <v>0.296969696969697</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1802,13 +1781,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5142857142857142</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1820,19 +1799,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K21">
-        <v>0.21285140562249</v>
+        <v>0.25</v>
       </c>
       <c r="L21">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1844,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>196</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1852,13 +1831,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5111111111111111</v>
+        <v>0.4765625</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1870,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K22">
-        <v>0.2063492063492063</v>
+        <v>0.1958041958041958</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1894,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1902,13 +1881,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1920,31 +1899,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K23">
-        <v>0.1973684210526316</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>61</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1952,13 +1931,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4724409448818898</v>
+        <v>0.4207920792079208</v>
       </c>
       <c r="C24">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D24">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1970,31 +1949,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K24">
-        <v>0.1958041958041958</v>
+        <v>0.1783783783783784</v>
       </c>
       <c r="L24">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>115</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2002,13 +1981,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4549763033175355</v>
+        <v>0.4170616113744076</v>
       </c>
       <c r="C25">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D25">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2020,31 +1999,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="K25">
-        <v>0.1794871794871795</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>96</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2052,13 +2031,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4526315789473684</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C26">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2070,31 +2049,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="K26">
-        <v>0.1612903225806452</v>
+        <v>0.1694468832309043</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>193</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>156</v>
+        <v>946</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2102,13 +2081,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4453125</v>
+        <v>0.3979591836734694</v>
       </c>
       <c r="C27">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D27">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2120,19 +2099,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K27">
-        <v>0.1551270815074496</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L27">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="M27">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2144,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>964</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2152,13 +2131,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4444444444444444</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2170,31 +2149,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K28">
-        <v>0.1383647798742138</v>
+        <v>0.128</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N28">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2202,13 +2181,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4207920792079208</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C29">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2220,31 +2199,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="J29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K29">
+        <v>0.10625</v>
+      </c>
+      <c r="L29">
+        <v>17</v>
+      </c>
+      <c r="M29">
+        <v>18</v>
+      </c>
+      <c r="N29">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29">
         <v>143</v>
-      </c>
-      <c r="K29">
-        <v>0.1030640668523677</v>
-      </c>
-      <c r="L29">
-        <v>37</v>
-      </c>
-      <c r="M29">
-        <v>37</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2252,13 +2231,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3888888888888889</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2270,31 +2249,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K30">
-        <v>0.09635416666666667</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="L30">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="N30">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>1388</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2302,7 +2281,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3833333333333334</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C31">
         <v>23</v>
@@ -2320,31 +2299,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="K31">
-        <v>0.0862533692722372</v>
+        <v>0.09511400651465798</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="N31">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="O31">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>339</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2352,13 +2331,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3658536585365854</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2370,31 +2349,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K32">
-        <v>0.0859375</v>
+        <v>0.09192200557103064</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M32">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N32">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>234</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2402,13 +2381,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3595505617977528</v>
+        <v>0.34375</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2420,19 +2399,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="K33">
-        <v>0.08359133126934984</v>
+        <v>0.07430340557275542</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>0.96</v>
@@ -2444,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2452,13 +2431,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3488372093023256</v>
+        <v>0.3432835820895522</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2470,31 +2449,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="K34">
-        <v>0.05985915492957746</v>
+        <v>0.06970509383378017</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N34">
-        <v>0.74</v>
+        <v>0.96</v>
       </c>
       <c r="O34">
-        <v>0.26</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>267</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2502,13 +2481,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3478260869565217</v>
+        <v>0.3418803418803419</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2520,31 +2499,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K35">
-        <v>0.04301075268817205</v>
+        <v>0.06640625</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N35">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O35">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>712</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2552,13 +2531,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3442622950819672</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C36">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2570,31 +2549,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K36">
-        <v>0.0418848167539267</v>
+        <v>0.04423592493297587</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N36">
-        <v>0.53</v>
+        <v>0.85</v>
       </c>
       <c r="O36">
-        <v>0.47</v>
+        <v>0.15</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>366</v>
+        <v>713</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2605,10 +2584,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C37">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2620,31 +2599,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="K37">
-        <v>0.03285714285714286</v>
+        <v>0.04322766570605188</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="N37">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="O37">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>677</v>
+        <v>664</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2673,28 +2652,28 @@
         <v>42</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="K38">
-        <v>0.03220035778175313</v>
+        <v>0.0397196261682243</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N38">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="O38">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>541</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2702,13 +2681,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3283582089552239</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2720,31 +2699,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="K39">
-        <v>0.02219140083217753</v>
+        <v>0.03405017921146954</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="N39">
-        <v>0.18</v>
+        <v>0.73</v>
       </c>
       <c r="O39">
-        <v>0.8200000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>705</v>
+        <v>539</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2752,13 +2731,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.328125</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="C40">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D40">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2770,7 +2749,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K40">
+        <v>0.03024193548387097</v>
+      </c>
+      <c r="L40">
+        <v>15</v>
+      </c>
+      <c r="M40">
+        <v>19</v>
+      </c>
+      <c r="N40">
+        <v>0.79</v>
+      </c>
+      <c r="O40">
+        <v>0.21</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>481</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2778,13 +2781,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3090909090909091</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="C41">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D41">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2796,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>38</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2804,13 +2807,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3079710144927536</v>
+        <v>0.3041237113402062</v>
       </c>
       <c r="C42">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D42">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2822,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>191</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2830,13 +2833,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3076923076923077</v>
+        <v>0.3</v>
       </c>
       <c r="C43">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D43">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2848,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>81</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2856,13 +2859,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3061224489795918</v>
+        <v>0.2974683544303797</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2874,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>34</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2882,13 +2885,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3041237113402062</v>
+        <v>0.2943037974683544</v>
       </c>
       <c r="C45">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="D45">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2900,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>135</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2908,13 +2911,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3035714285714285</v>
+        <v>0.288659793814433</v>
       </c>
       <c r="C46">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D46">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2926,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>39</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2934,13 +2937,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3006329113924051</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="C47">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2952,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>221</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2960,13 +2963,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2959183673469388</v>
+        <v>0.2681159420289855</v>
       </c>
       <c r="C48">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="D48">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2978,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>69</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2986,13 +2989,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2857142857142857</v>
+        <v>0.2637362637362637</v>
       </c>
       <c r="C49">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D49">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3004,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3012,13 +3015,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2857142857142857</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="C50">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D50">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3030,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3038,25 +3041,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2757078986587183</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="C51">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="D51">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="E51">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="F51">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>486</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3064,13 +3067,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2702702702702703</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C52">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3082,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3090,25 +3093,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2689873417721519</v>
+        <v>0.2526002971768202</v>
       </c>
       <c r="C53">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="D53">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>231</v>
+        <v>503</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3116,25 +3119,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2586206896551724</v>
+        <v>0.2516556291390729</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="D54">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>43</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3142,25 +3145,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2538631346578367</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="C55">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="E55">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>338</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3168,13 +3171,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2533333333333334</v>
+        <v>0.2420382165605096</v>
       </c>
       <c r="C56">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D56">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3186,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>56</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3194,13 +3197,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2527472527472527</v>
+        <v>0.2336448598130841</v>
       </c>
       <c r="C57">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D57">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3212,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>68</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3220,7 +3223,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2463768115942029</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C58">
         <v>17</v>
@@ -3238,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3246,25 +3249,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2429906542056075</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="C59">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D59">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E59">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3272,25 +3275,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2420382165605096</v>
+        <v>0.2210526315789474</v>
       </c>
       <c r="C60">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D60">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>119</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3298,13 +3301,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.24</v>
+        <v>0.2185792349726776</v>
       </c>
       <c r="C61">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D61">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3316,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3324,13 +3327,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2349726775956284</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C62">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D62">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3342,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>140</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3350,13 +3353,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2342857142857143</v>
+        <v>0.212962962962963</v>
       </c>
       <c r="C63">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D63">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3368,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>134</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3376,13 +3379,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2307692307692308</v>
+        <v>0.2097701149425287</v>
       </c>
       <c r="C64">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D64">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3394,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>60</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3402,13 +3405,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2268041237113402</v>
+        <v>0.1949152542372881</v>
       </c>
       <c r="C65">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D65">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3420,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3428,13 +3431,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2242990654205607</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C66">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D66">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3446,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>166</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3454,13 +3457,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2164948453608248</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C67">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D67">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3472,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3480,25 +3483,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2162162162162162</v>
+        <v>0.1839080459770115</v>
       </c>
       <c r="C68">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D68">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>58</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3506,25 +3509,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.2162162162162162</v>
+        <v>0.1732283464566929</v>
       </c>
       <c r="C69">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D69">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>58</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3532,13 +3535,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.2112676056338028</v>
+        <v>0.1727748691099476</v>
       </c>
       <c r="C70">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D70">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3550,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>56</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3558,25 +3561,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2097701149425287</v>
+        <v>0.162534435261708</v>
       </c>
       <c r="C71">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D71">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>275</v>
+        <v>304</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3584,13 +3587,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.2083333333333333</v>
+        <v>0.1614583333333333</v>
       </c>
       <c r="C72">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D72">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3602,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3610,25 +3613,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2041884816753927</v>
+        <v>0.1588447653429603</v>
       </c>
       <c r="C73">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D73">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>152</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3636,25 +3639,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.203125</v>
+        <v>0.1584158415841584</v>
       </c>
       <c r="C74">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D74">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3662,25 +3665,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1973684210526316</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C75">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D75">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>61</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3688,25 +3691,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1846153846153846</v>
+        <v>0.1503759398496241</v>
       </c>
       <c r="C76">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D76">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>106</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3714,25 +3717,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1836158192090395</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="C77">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D77">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E77">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="F77">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>289</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3740,25 +3743,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1788617886178862</v>
+        <v>0.1467889908256881</v>
       </c>
       <c r="C78">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D78">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E78">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>202</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3766,25 +3769,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1743119266055046</v>
+        <v>0.1437908496732026</v>
       </c>
       <c r="C79">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D79">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>90</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3792,13 +3795,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1647940074906367</v>
+        <v>0.1374045801526718</v>
       </c>
       <c r="C80">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D80">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3810,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>223</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3818,25 +3821,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1610169491525424</v>
+        <v>0.1337579617834395</v>
       </c>
       <c r="C81">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D81">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>99</v>
+        <v>272</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3844,25 +3847,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1589041095890411</v>
+        <v>0.1336898395721925</v>
       </c>
       <c r="C82">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="D82">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>307</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3870,25 +3873,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1526717557251908</v>
+        <v>0.1278409090909091</v>
       </c>
       <c r="C83">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D83">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>111</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3896,25 +3899,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.15</v>
+        <v>0.1257142857142857</v>
       </c>
       <c r="C84">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D84">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E84">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>85</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3922,25 +3925,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1470588235294118</v>
+        <v>0.10625</v>
       </c>
       <c r="C85">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D85">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>87</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3948,25 +3951,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1407942238267148</v>
+        <v>0.1056338028169014</v>
       </c>
       <c r="C86">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D86">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E86">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="F86">
-        <v>0.9299999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>238</v>
+        <v>381</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3974,25 +3977,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1382113821138211</v>
+        <v>0.1041322314049587</v>
       </c>
       <c r="C87">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D87">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E87">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F87">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>106</v>
+        <v>542</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4000,25 +4003,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1314285714285714</v>
+        <v>0.1008968609865471</v>
       </c>
       <c r="C88">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D88">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>152</v>
+        <v>401</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4026,13 +4029,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1304347826086956</v>
+        <v>0.0949367088607595</v>
       </c>
       <c r="C89">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D89">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4044,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4052,25 +4055,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1273885350318471</v>
+        <v>0.09475032010243278</v>
       </c>
       <c r="C90">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D90">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="E90">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F90">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>137</v>
+        <v>707</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4078,25 +4081,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.125</v>
+        <v>0.08796296296296297</v>
       </c>
       <c r="C91">
+        <v>19</v>
+      </c>
+      <c r="D91">
         <v>21</v>
       </c>
-      <c r="D91">
-        <v>24</v>
-      </c>
       <c r="E91">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F91">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>147</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4104,25 +4107,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1238095238095238</v>
+        <v>0.08595988538681948</v>
       </c>
       <c r="C92">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D92">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E92">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F92">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>276</v>
+        <v>319</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4130,13 +4133,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1176470588235294</v>
+        <v>0.07746478873239436</v>
       </c>
       <c r="C93">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D93">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E93">
         <v>0.08</v>
@@ -4148,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>165</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4156,7 +4159,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1111111111111111</v>
+        <v>0.07653061224489796</v>
       </c>
       <c r="C94">
         <v>15</v>
@@ -4174,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>120</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4182,25 +4185,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1103896103896104</v>
+        <v>0.06891271056661562</v>
       </c>
       <c r="C95">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D95">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>137</v>
+        <v>608</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4208,25 +4211,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.1081081081081081</v>
+        <v>0.066</v>
       </c>
       <c r="C96">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D96">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>132</v>
+        <v>467</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4234,25 +4237,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.107981220657277</v>
+        <v>0.04983388704318937</v>
       </c>
       <c r="C97">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D97">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E97">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>380</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4260,25 +4263,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1056105610561056</v>
+        <v>0.04973821989528796</v>
       </c>
       <c r="C98">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D98">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E98">
-        <v>0.03</v>
+        <v>0.42</v>
       </c>
       <c r="F98">
-        <v>0.97</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>542</v>
+        <v>363</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4286,25 +4289,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.09722222222222222</v>
+        <v>0.04967602591792657</v>
       </c>
       <c r="C99">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D99">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E99">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="F99">
-        <v>0.91</v>
+        <v>0.79</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>195</v>
+        <v>440</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4312,25 +4315,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.09383033419023136</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="C100">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D100">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="E100">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="F100">
-        <v>0.8200000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>705</v>
+        <v>423</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4338,259 +4341,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.08771929824561403</v>
+        <v>0.02769679300291545</v>
       </c>
       <c r="C101">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D101">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E101">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="F101">
-        <v>0.88</v>
+        <v>0.76</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B102">
-        <v>0.08705357142857142</v>
-      </c>
-      <c r="C102">
-        <v>39</v>
-      </c>
-      <c r="D102">
-        <v>40</v>
-      </c>
-      <c r="E102">
-        <v>0.03</v>
-      </c>
-      <c r="F102">
-        <v>0.97</v>
-      </c>
-      <c r="G102" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B103">
-        <v>0.08346213292117466</v>
-      </c>
-      <c r="C103">
-        <v>54</v>
-      </c>
-      <c r="D103">
-        <v>62</v>
-      </c>
-      <c r="E103">
-        <v>0.13</v>
-      </c>
-      <c r="F103">
-        <v>0.87</v>
-      </c>
-      <c r="G103" t="b">
-        <v>1</v>
-      </c>
-      <c r="H103">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B104">
-        <v>0.07728337236533958</v>
-      </c>
-      <c r="C104">
-        <v>33</v>
-      </c>
-      <c r="D104">
-        <v>35</v>
-      </c>
-      <c r="E104">
-        <v>0.06</v>
-      </c>
-      <c r="F104">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G104" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B105">
-        <v>0.06926406926406926</v>
-      </c>
-      <c r="C105">
-        <v>16</v>
-      </c>
-      <c r="D105">
-        <v>18</v>
-      </c>
-      <c r="E105">
-        <v>0.11</v>
-      </c>
-      <c r="F105">
-        <v>0.89</v>
-      </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B106">
-        <v>0.06436781609195402</v>
-      </c>
-      <c r="C106">
-        <v>28</v>
-      </c>
-      <c r="D106">
-        <v>40</v>
-      </c>
-      <c r="E106">
-        <v>0.3</v>
-      </c>
-      <c r="F106">
-        <v>0.7</v>
-      </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B107">
-        <v>0.06</v>
-      </c>
-      <c r="C107">
-        <v>21</v>
-      </c>
-      <c r="D107">
-        <v>22</v>
-      </c>
-      <c r="E107">
-        <v>0.05</v>
-      </c>
-      <c r="F107">
-        <v>0.95</v>
-      </c>
-      <c r="G107" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B108">
-        <v>0.05676855895196507</v>
-      </c>
-      <c r="C108">
-        <v>26</v>
-      </c>
-      <c r="D108">
-        <v>37</v>
-      </c>
-      <c r="E108">
-        <v>0.3</v>
-      </c>
-      <c r="F108">
-        <v>0.7</v>
-      </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B109">
-        <v>0.05033557046979865</v>
-      </c>
-      <c r="C109">
-        <v>15</v>
-      </c>
-      <c r="D109">
-        <v>18</v>
-      </c>
-      <c r="E109">
-        <v>0.17</v>
-      </c>
-      <c r="F109">
-        <v>0.83</v>
-      </c>
-      <c r="G109" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B110">
-        <v>0.04183266932270916</v>
-      </c>
-      <c r="C110">
-        <v>21</v>
-      </c>
-      <c r="D110">
-        <v>23</v>
-      </c>
-      <c r="E110">
-        <v>0.09</v>
-      </c>
-      <c r="F110">
-        <v>0.91</v>
-      </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110">
-        <v>481</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
